--- a/results/IMDB/res3_ns_max_deg.xlsx
+++ b/results/IMDB/res3_ns_max_deg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Prog\github\organization\LDPGraphStatistics\results\IMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49A8DF9-F364-45D0-96B2-5303D4C82611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E65DCD8-C8C0-4978-9847-FA10BDE6A1EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="30" windowWidth="16810" windowHeight="9530" tabRatio="593" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="593" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res (eps=1)" sheetId="22" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
                   <c:v>0.29727150000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25445649999999997</c:v>
+                  <c:v>0.25444260000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.24478030000000001</c:v>
@@ -1246,7 +1246,7 @@
                   <c:v>0.29748069999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.25497639999999999</c:v>
+                  <c:v>0.25496249999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4531,10 +4531,10 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <v>0.25445649999999997</v>
+        <v>0.25444260000000002</v>
       </c>
       <c r="K4" s="1">
-        <v>181229300000000</v>
+        <v>181226400000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4828,10 +4828,10 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <v>0.25497639999999999</v>
+        <v>0.25496249999999998</v>
       </c>
       <c r="K16" s="1">
-        <v>4.5489170000000004E-3</v>
+        <v>4.548842E-3</v>
       </c>
     </row>
   </sheetData>
